--- a/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 89,52</t>
+          <t>84,42; 89,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,15; 76,44</t>
+          <t>70,37; 76,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,43; 89,02</t>
+          <t>82,41; 89,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,33; 84,79</t>
+          <t>78,46; 84,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,97; 91,99</t>
+          <t>88,18; 91,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,37; 86,81</t>
+          <t>82,45; 86,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,46; 89,81</t>
+          <t>84,32; 89,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,52; 89,41</t>
+          <t>84,23; 89,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 90,31</t>
+          <t>87,22; 90,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,12; 81,85</t>
+          <t>78,03; 81,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,4; 88,73</t>
+          <t>84,43; 88,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>82,93; 86,85</t>
+          <t>83,04; 86,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,87; 95,51</t>
+          <t>92,86; 95,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,94; 91,11</t>
+          <t>87,94; 91,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,33; 91,38</t>
+          <t>88,17; 91,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,66; 92,8</t>
+          <t>82,12; 92,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,57; 95,14</t>
+          <t>92,43; 95,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,04; 92,19</t>
+          <t>89,04; 92,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,77; 92,61</t>
+          <t>89,8; 92,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,67; 96,49</t>
+          <t>94,52; 96,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,16; 94,98</t>
+          <t>93,07; 94,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,13; 91,16</t>
+          <t>89,09; 91,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,62; 91,61</t>
+          <t>89,55; 91,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,36; 94,29</t>
+          <t>88,54; 94,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,99; 98,12</t>
+          <t>94,37; 98,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,33; 98,27</t>
+          <t>94,23; 98,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,3; 98,46</t>
+          <t>95,34; 98,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,11; 98,42</t>
+          <t>95,12; 98,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,65; 98,31</t>
+          <t>94,75; 98,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,93; 97,01</t>
+          <t>92,72; 97,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,1; 96,86</t>
+          <t>92,92; 96,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,51; 98,66</t>
+          <t>96,46; 98,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,35; 97,95</t>
+          <t>95,09; 97,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,26; 97,2</t>
+          <t>94,37; 97,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>94,67; 97,25</t>
+          <t>94,72; 97,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,17</t>
+          <t>96,44; 98,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,57; 93,62</t>
+          <t>91,52; 93,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,03; 87,6</t>
+          <t>85,06; 87,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,45; 91,64</t>
+          <t>89,36; 91,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,06; 91,95</t>
+          <t>84,6; 92,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,98; 93,93</t>
+          <t>91,94; 93,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,9; 90,14</t>
+          <t>87,88; 90,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,93; 92,1</t>
+          <t>89,94; 92,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,36; 95,04</t>
+          <t>93,4; 95,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,12; 93,6</t>
+          <t>92,14; 93,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87,0; 88,67</t>
+          <t>86,89; 88,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,0; 91,65</t>
+          <t>90,05; 91,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,32</t>
+          <t>89,54; 93,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,42; 89,62</t>
+          <t>84,41; 89,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,37; 76,66</t>
+          <t>69,88; 77,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,41; 89,09</t>
+          <t>82,22; 89,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,18; 91,83</t>
+          <t>88,05; 92,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,45; 86,95</t>
+          <t>82,25; 86,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,32; 89,75</t>
+          <t>84,11; 89,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,22; 90,39</t>
+          <t>87,48; 90,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,03; 81,74</t>
+          <t>77,91; 81,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,43; 88,42</t>
+          <t>84,2; 88,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,86; 95,49</t>
+          <t>92,94; 95,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,94; 91,15</t>
+          <t>87,95; 91,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,17; 91,28</t>
+          <t>88,38; 91,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 95,1</t>
+          <t>92,65; 95,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,04; 92,07</t>
+          <t>89,17; 92,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,8; 92,56</t>
+          <t>89,78; 92,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,07; 94,96</t>
+          <t>93,21; 95,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,09; 91,22</t>
+          <t>88,98; 91,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,55; 91,64</t>
+          <t>89,46; 91,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,37; 98,13</t>
+          <t>93,98; 98,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,23; 98,09</t>
+          <t>93,97; 98,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,34; 98,45</t>
+          <t>95,22; 98,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,75; 98,26</t>
+          <t>94,76; 98,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,72; 97,05</t>
+          <t>92,43; 96,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,92; 96,9</t>
+          <t>92,95; 96,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,09; 97,76</t>
+          <t>95,04; 97,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,37; 97,14</t>
+          <t>94,18; 97,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>94,72; 97,21</t>
+          <t>94,94; 97,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,52; 93,75</t>
+          <t>91,64; 93,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,06; 87,66</t>
+          <t>85,04; 87,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,36; 91,71</t>
+          <t>89,49; 91,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,88</t>
+          <t>91,94; 93,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,88; 90,18</t>
+          <t>87,9; 90,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,94; 92,16</t>
+          <t>89,85; 92,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,14; 93,6</t>
+          <t>92,05; 93,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>86,89; 88,67</t>
+          <t>86,85; 88,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,05; 91,6</t>
+          <t>89,98; 91,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
